--- a/TestData/TMTT0013748_TMTT0013750_TMTT0013751_TMTT0013753_VerifyNewTitleRateSheetAvailability_CalculatedAmountOnTimeRecordManagerAfterAddingRateSheet.xlsx
+++ b/TestData/TMTT0013748_TMTT0013750_TMTT0013751_TMTT0013753_VerifyNewTitleRateSheetAvailability_CalculatedAmountOnTimeRecordManagerAfterAddingRateSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339E1213-D470-4653-B320-BE3ED71A1FD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E53E29A-9DC9-4B29-9CCE-96285B67DA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6804" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="8" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
-  <si>
-    <t>Coartney Williams</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>Rate Sheet</t>
   </si>
@@ -307,6 +304,12 @@
   </si>
   <si>
     <t>Sandy Ryan</t>
+  </si>
+  <si>
+    <t>Coartney Trone</t>
+  </si>
+  <si>
+    <t>Jason Chan</t>
   </si>
 </sst>
 </file>
@@ -695,7 +698,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -703,7 +706,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1032,29 +1034,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1070,16 +1072,16 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1091,28 +1093,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917D06E5-6D73-49DB-89C5-B5E08B0BD2AF}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1129,26 +1131,26 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1161,95 +1163,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
       <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1265,215 +1270,215 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" customWidth="1"/>
-    <col min="29" max="29" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AB2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" t="s">
         <v>50</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1489,66 +1494,66 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>65</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
